--- a/tests/excel/src/split.xlsx
+++ b/tests/excel/src/split.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jack-\userfiles\develop\product\j2shrine\tests\excel\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D3780C-2BCD-4A00-ABE3-B30E61303D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEE132-275D-4B06-B439-E376B1841098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="3045" windowWidth="18570" windowHeight="14745" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5400" yWindow="3045" windowWidth="18570" windowHeight="14745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet01" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>A_01_1</t>
   </si>
@@ -142,6 +142,10 @@
   </si>
   <si>
     <t>03_abs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>02_abs</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -534,15 +538,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEF5FE17-EBF8-4F49-9AC4-305048D5AFCA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -552,8 +556,11 @@
       <c r="C1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -564,7 +571,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -575,7 +582,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -597,7 +604,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C1E64DE-8CD4-46E4-9785-F04152CA5D95}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
